--- a/출석부.xlsx
+++ b/출석부.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++학술회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB5B2879-2AD8-4068-AB30-51542B363644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70001B0-77B0-4BFE-88BE-85ED7C93EB83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-21315" yWindow="315" windowWidth="18540" windowHeight="10635" xr2:uid="{E15BD9E1-6437-4F1B-9A6F-9C87FA2ECD4F}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E15BD9E1-6437-4F1B-9A6F-9C87FA2ECD4F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
   <si>
     <t>고병진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -749,6 +749,9 @@
       <c r="D18" t="s">
         <v>10</v>
       </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -763,18 +766,24 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
+      <c r="E19" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
         <v>16</v>
       </c>
       <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
         <v>10</v>
       </c>
     </row>
@@ -791,6 +800,9 @@
       <c r="D21" t="s">
         <v>16</v>
       </c>
+      <c r="E21" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -805,6 +817,9 @@
       <c r="D22" t="s">
         <v>16</v>
       </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -819,6 +834,9 @@
       <c r="D23" t="s">
         <v>10</v>
       </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -850,6 +868,9 @@
       <c r="D25" t="s">
         <v>16</v>
       </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -864,6 +885,9 @@
       <c r="D26" t="s">
         <v>10</v>
       </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -878,18 +902,24 @@
       <c r="D27" t="s">
         <v>10</v>
       </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C28" t="s">
         <v>16</v>
       </c>
       <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
         <v>20</v>
       </c>
     </row>

--- a/출석부.xlsx
+++ b/출석부.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++학술회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70001B0-77B0-4BFE-88BE-85ED7C93EB83}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E0C63C-DBA8-4F50-AA11-481F766A9E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E15BD9E1-6437-4F1B-9A6F-9C87FA2ECD4F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="23">
   <si>
     <t>고병진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -498,7 +498,7 @@
   <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -539,6 +539,9 @@
       <c r="E2" t="s">
         <v>16</v>
       </c>
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -553,6 +556,9 @@
       <c r="E3" t="s">
         <v>16</v>
       </c>
+      <c r="F3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -567,6 +573,9 @@
       <c r="E4" t="s">
         <v>16</v>
       </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -581,6 +590,9 @@
       <c r="E5" t="s">
         <v>16</v>
       </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -595,6 +607,9 @@
       <c r="E6" t="s">
         <v>16</v>
       </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -609,6 +624,9 @@
       <c r="E7" t="s">
         <v>16</v>
       </c>
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -623,6 +641,9 @@
       <c r="E8" t="s">
         <v>16</v>
       </c>
+      <c r="F8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -654,6 +675,9 @@
       <c r="E10" t="s">
         <v>16</v>
       </c>
+      <c r="F10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -668,6 +692,9 @@
       <c r="E11" t="s">
         <v>16</v>
       </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -682,6 +709,9 @@
       <c r="E12" t="s">
         <v>10</v>
       </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -694,6 +724,9 @@
         <v>16</v>
       </c>
       <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
         <v>16</v>
       </c>
     </row>

--- a/출석부.xlsx
+++ b/출석부.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\C++학술회\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E0C63C-DBA8-4F50-AA11-481F766A9E58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF5D9925-20FE-42B1-B95E-056AE197E36E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E15BD9E1-6437-4F1B-9A6F-9C87FA2ECD4F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="24">
   <si>
     <t>고병진</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -125,6 +125,10 @@
   </si>
   <si>
     <t>5월3일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월17일</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -495,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21735A2-B110-4DCC-ABE3-65D70E5F110A}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -506,7 +510,7 @@
     <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" s="1">
         <v>44277</v>
       </c>
@@ -522,8 +526,11 @@
       <c r="F1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -542,8 +549,11 @@
       <c r="F2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -559,8 +569,11 @@
       <c r="F3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -577,7 +590,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -593,8 +606,11 @@
       <c r="F5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -610,8 +626,11 @@
       <c r="F6" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -627,8 +646,11 @@
       <c r="F7" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -644,8 +666,11 @@
       <c r="F8" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -662,7 +687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -678,8 +703,11 @@
       <c r="F10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -695,8 +723,11 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -712,8 +743,11 @@
       <c r="F12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -729,8 +763,11 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -747,7 +784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -902,7 +939,7 @@
         <v>16</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
